--- a/data/pca/factorExposure/factorExposure_2017-03-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0144223413087457</v>
+        <v>0.01054999440674088</v>
       </c>
       <c r="C2">
-        <v>0.01881947907751321</v>
+        <v>-0.04047698712808916</v>
       </c>
       <c r="D2">
-        <v>-0.03040452416356841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0294955826244827</v>
+      </c>
+      <c r="E2">
+        <v>-0.03782874452207344</v>
+      </c>
+      <c r="F2">
+        <v>0.003900977910711917</v>
+      </c>
+      <c r="G2">
+        <v>0.1034559997388891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02031244349839616</v>
+        <v>0.04049982916631612</v>
       </c>
       <c r="C3">
-        <v>-0.002219257128163816</v>
+        <v>-0.1013506591156742</v>
       </c>
       <c r="D3">
-        <v>-0.09465826209924448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01816784814446454</v>
+      </c>
+      <c r="E3">
+        <v>-0.1034262329179233</v>
+      </c>
+      <c r="F3">
+        <v>0.001644191610572995</v>
+      </c>
+      <c r="G3">
+        <v>0.1614470586440918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02810287771344442</v>
+        <v>0.05568858125517889</v>
       </c>
       <c r="C4">
-        <v>0.007261253948022086</v>
+        <v>-0.06877323190474036</v>
       </c>
       <c r="D4">
-        <v>-0.08021940878909199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02470133944608007</v>
+      </c>
+      <c r="E4">
+        <v>-0.03456204140252994</v>
+      </c>
+      <c r="F4">
+        <v>0.009988691957445579</v>
+      </c>
+      <c r="G4">
+        <v>0.1000444988304649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01298545359025435</v>
+        <v>0.03594276307848933</v>
       </c>
       <c r="C6">
-        <v>0.009367401575069064</v>
+        <v>-0.05050860518439875</v>
       </c>
       <c r="D6">
-        <v>-0.07401823579356522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01730880422132593</v>
+      </c>
+      <c r="E6">
+        <v>-0.04027424452585171</v>
+      </c>
+      <c r="F6">
+        <v>0.006109059433699754</v>
+      </c>
+      <c r="G6">
+        <v>0.08764343497016519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004679350321591971</v>
+        <v>0.02058872156278095</v>
       </c>
       <c r="C7">
-        <v>0.01073264024866694</v>
+        <v>-0.03937494208545924</v>
       </c>
       <c r="D7">
-        <v>-0.03658866295317601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01403394015527546</v>
+      </c>
+      <c r="E7">
+        <v>-0.008864566054195141</v>
+      </c>
+      <c r="F7">
+        <v>-0.003941006506164504</v>
+      </c>
+      <c r="G7">
+        <v>0.1227601692082073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002888617046666385</v>
+        <v>0.002530696491594388</v>
       </c>
       <c r="C8">
-        <v>0.003059019032682049</v>
+        <v>-0.02407150756960955</v>
       </c>
       <c r="D8">
-        <v>0.005187103190331399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003911463423072089</v>
+      </c>
+      <c r="E8">
+        <v>-0.03153100812772364</v>
+      </c>
+      <c r="F8">
+        <v>0.00465047648476028</v>
+      </c>
+      <c r="G8">
+        <v>0.07082991043162959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01366413689875744</v>
+        <v>0.03405259708257354</v>
       </c>
       <c r="C9">
-        <v>0.007665984457127522</v>
+        <v>-0.05012860645534124</v>
       </c>
       <c r="D9">
-        <v>-0.05836860091095343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01647671067677491</v>
+      </c>
+      <c r="E9">
+        <v>-0.02397036962856731</v>
+      </c>
+      <c r="F9">
+        <v>0.007353801793692793</v>
+      </c>
+      <c r="G9">
+        <v>0.1003859340414629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1367646582559831</v>
+        <v>0.0984894172291937</v>
       </c>
       <c r="C10">
-        <v>-0.1099249313425863</v>
+        <v>0.1839558953328487</v>
       </c>
       <c r="D10">
-        <v>0.1074649129384457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01540349045003486</v>
+      </c>
+      <c r="E10">
+        <v>-0.02147137427618849</v>
+      </c>
+      <c r="F10">
+        <v>-0.02059021920767835</v>
+      </c>
+      <c r="G10">
+        <v>0.05829055586891398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.002223639433187818</v>
+        <v>0.03435133270344177</v>
       </c>
       <c r="C11">
-        <v>-0.000220666291193426</v>
+        <v>-0.05320592286158422</v>
       </c>
       <c r="D11">
-        <v>-0.05207180138076598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002576200768324819</v>
+      </c>
+      <c r="E11">
+        <v>-0.01875370129766712</v>
+      </c>
+      <c r="F11">
+        <v>0.01897958725126195</v>
+      </c>
+      <c r="G11">
+        <v>0.09016900711126342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00434188115828382</v>
+        <v>0.03576193654410913</v>
       </c>
       <c r="C12">
-        <v>0.004177243069979213</v>
+        <v>-0.04784067680545392</v>
       </c>
       <c r="D12">
-        <v>-0.04482354762463213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006723273760626527</v>
+      </c>
+      <c r="E12">
+        <v>-0.01042108298514185</v>
+      </c>
+      <c r="F12">
+        <v>0.001929192090752733</v>
+      </c>
+      <c r="G12">
+        <v>0.08202171698044221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01839905453280652</v>
+        <v>0.01518402296548146</v>
       </c>
       <c r="C13">
-        <v>0.01269824730494659</v>
+        <v>-0.04205298253567528</v>
       </c>
       <c r="D13">
-        <v>-0.03687281267679679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02665816935911752</v>
+      </c>
+      <c r="E13">
+        <v>-0.03948069809852277</v>
+      </c>
+      <c r="F13">
+        <v>0.00197850435914311</v>
+      </c>
+      <c r="G13">
+        <v>0.1410206966957658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.004200447531907593</v>
+        <v>0.007819948973055012</v>
       </c>
       <c r="C14">
-        <v>0.005560272936077474</v>
+        <v>-0.02809561133118856</v>
       </c>
       <c r="D14">
-        <v>-0.01811021620622514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01028784373581068</v>
+      </c>
+      <c r="E14">
+        <v>-0.009295991918516943</v>
+      </c>
+      <c r="F14">
+        <v>-0.007118862964212734</v>
+      </c>
+      <c r="G14">
+        <v>0.1075517870761289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005381280019557833</v>
+        <v>0.03294496903298384</v>
       </c>
       <c r="C16">
-        <v>-0.00294864293088541</v>
+        <v>-0.0461937383556285</v>
       </c>
       <c r="D16">
-        <v>-0.04150471635477242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002047988527819813</v>
+      </c>
+      <c r="E16">
+        <v>-0.01621504915596271</v>
+      </c>
+      <c r="F16">
+        <v>0.000633555695088015</v>
+      </c>
+      <c r="G16">
+        <v>0.09217793031753721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01143757573871431</v>
+        <v>0.02239731238370694</v>
       </c>
       <c r="C19">
-        <v>0.007764670756590032</v>
+        <v>-0.05129604052166784</v>
       </c>
       <c r="D19">
-        <v>-0.03890393881672015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01952174491463961</v>
+      </c>
+      <c r="E19">
+        <v>-0.08350029330508693</v>
+      </c>
+      <c r="F19">
+        <v>0.01747139689767727</v>
+      </c>
+      <c r="G19">
+        <v>0.1388748864364517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004752854156311772</v>
+        <v>0.01525765122633266</v>
       </c>
       <c r="C20">
-        <v>0.009749942868601395</v>
+        <v>-0.04158894725108674</v>
       </c>
       <c r="D20">
-        <v>-0.03291006927653155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01436652602003705</v>
+      </c>
+      <c r="E20">
+        <v>-0.03972177479112125</v>
+      </c>
+      <c r="F20">
+        <v>-0.01362781491958801</v>
+      </c>
+      <c r="G20">
+        <v>0.1115378445020767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01375139804876218</v>
+        <v>0.01178608671690776</v>
       </c>
       <c r="C21">
-        <v>0.005805540283414211</v>
+        <v>-0.03818935884703816</v>
       </c>
       <c r="D21">
-        <v>-0.01865956272872645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01940408691635395</v>
+      </c>
+      <c r="E21">
+        <v>-0.05290337630443687</v>
+      </c>
+      <c r="F21">
+        <v>-0.002864698928893577</v>
+      </c>
+      <c r="G21">
+        <v>0.1390419456350464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001847892478243228</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-6.898809872475236e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0007390117775570765</v>
+      </c>
+      <c r="E22">
+        <v>-0.005518002514368473</v>
+      </c>
+      <c r="F22">
+        <v>0.002680738006197396</v>
+      </c>
+      <c r="G22">
+        <v>0.007245466549036465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001853374946894026</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-8.069507599030889e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0007377896737480858</v>
+      </c>
+      <c r="E23">
+        <v>-0.00550447284465145</v>
+      </c>
+      <c r="F23">
+        <v>0.002686372556963466</v>
+      </c>
+      <c r="G23">
+        <v>0.007138229566518495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0007300725756368944</v>
+        <v>0.02815122556910574</v>
       </c>
       <c r="C24">
-        <v>0.007299496096644008</v>
+        <v>-0.0508936542964664</v>
       </c>
       <c r="D24">
-        <v>-0.04537033603784658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.00735619452369115</v>
+      </c>
+      <c r="E24">
+        <v>-0.01373305708142942</v>
+      </c>
+      <c r="F24">
+        <v>0.01118500203189517</v>
+      </c>
+      <c r="G24">
+        <v>0.09094819260141428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0162517159118093</v>
+        <v>0.04222918144847407</v>
       </c>
       <c r="C25">
-        <v>0.001294499771835504</v>
+        <v>-0.05791821318714376</v>
       </c>
       <c r="D25">
-        <v>-0.05841968884124255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01140566055262592</v>
+      </c>
+      <c r="E25">
+        <v>-0.005648473652329046</v>
+      </c>
+      <c r="F25">
+        <v>0.004255387989382338</v>
+      </c>
+      <c r="G25">
+        <v>0.09893908204473213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0138263990226814</v>
+        <v>0.01353243985355249</v>
       </c>
       <c r="C26">
-        <v>0.01698543058334239</v>
+        <v>-0.01268040931479273</v>
       </c>
       <c r="D26">
-        <v>0.0004310458979670005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02430327756992286</v>
+      </c>
+      <c r="E26">
+        <v>-0.01047972430896893</v>
+      </c>
+      <c r="F26">
+        <v>-0.007062511408996395</v>
+      </c>
+      <c r="G26">
+        <v>0.08361577937187516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1882801891812383</v>
+        <v>0.1257988200431542</v>
       </c>
       <c r="C28">
-        <v>-0.1330748065581755</v>
+        <v>0.2408537314381873</v>
       </c>
       <c r="D28">
-        <v>0.1416517184358926</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00649487639487526</v>
+      </c>
+      <c r="E28">
+        <v>-0.009712682636957943</v>
+      </c>
+      <c r="F28">
+        <v>-0.01485430489831932</v>
+      </c>
+      <c r="G28">
+        <v>0.04919337601071212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009929179063840473</v>
+        <v>0.008419852872807252</v>
       </c>
       <c r="C29">
-        <v>0.0008605635039906035</v>
+        <v>-0.02232014907899169</v>
       </c>
       <c r="D29">
-        <v>-0.01543334551119428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009415828051108006</v>
+      </c>
+      <c r="E29">
+        <v>-0.006536171761431605</v>
+      </c>
+      <c r="F29">
+        <v>-0.01335802599234893</v>
+      </c>
+      <c r="G29">
+        <v>0.09917974479817168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01146574343725583</v>
+        <v>0.04140623063949857</v>
       </c>
       <c r="C30">
-        <v>0.02216913266789565</v>
+        <v>-0.06846396732940666</v>
       </c>
       <c r="D30">
-        <v>-0.09842654262847465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02912719038097289</v>
+      </c>
+      <c r="E30">
+        <v>-0.06238950792529668</v>
+      </c>
+      <c r="F30">
+        <v>0.04321223083690427</v>
+      </c>
+      <c r="G30">
+        <v>0.1347024361133487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02574241345982041</v>
+        <v>0.05303928849380186</v>
       </c>
       <c r="C31">
-        <v>-0.01304699061040573</v>
+        <v>-0.03801440338223665</v>
       </c>
       <c r="D31">
-        <v>-0.02807339715088731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003826861111588362</v>
+      </c>
+      <c r="E31">
+        <v>0.0003404533045760803</v>
+      </c>
+      <c r="F31">
+        <v>-0.03982649310593608</v>
+      </c>
+      <c r="G31">
+        <v>0.09876824365071384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0005831319019966426</v>
+        <v>0.001795634900419398</v>
       </c>
       <c r="C32">
-        <v>-0.009968112360548911</v>
+        <v>-0.02317843354926737</v>
       </c>
       <c r="D32">
-        <v>-9.464003580513955e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002703479936805315</v>
+      </c>
+      <c r="E32">
+        <v>-0.0376427710827484</v>
+      </c>
+      <c r="F32">
+        <v>0.04179113486478695</v>
+      </c>
+      <c r="G32">
+        <v>0.08723748989736625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.007283517439562761</v>
+        <v>0.02798706947549625</v>
       </c>
       <c r="C33">
-        <v>0.008694660841629044</v>
+        <v>-0.05034808320005971</v>
       </c>
       <c r="D33">
-        <v>-0.03970905744179934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01588815619614031</v>
+      </c>
+      <c r="E33">
+        <v>-0.0459610901045355</v>
+      </c>
+      <c r="F33">
+        <v>0.01463753324289859</v>
+      </c>
+      <c r="G33">
+        <v>0.1615967703829379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.008871331655788805</v>
+        <v>0.03960258061973258</v>
       </c>
       <c r="C34">
-        <v>-0.01341779612930835</v>
+        <v>-0.05938485894761986</v>
       </c>
       <c r="D34">
-        <v>-0.05592228387063241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004383734214828681</v>
+      </c>
+      <c r="E34">
+        <v>-0.00918851835028116</v>
+      </c>
+      <c r="F34">
+        <v>0.02066055841234207</v>
+      </c>
+      <c r="G34">
+        <v>0.09398039515190074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01526505280329403</v>
+        <v>0.01593250137737745</v>
       </c>
       <c r="C36">
-        <v>0.001656853465283045</v>
+        <v>-0.009600442528928612</v>
       </c>
       <c r="D36">
-        <v>-0.004632416471970163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01266816432100315</v>
+      </c>
+      <c r="E36">
+        <v>-0.01012046808028357</v>
+      </c>
+      <c r="F36">
+        <v>-0.007658794461353566</v>
+      </c>
+      <c r="G36">
+        <v>0.09255587687727945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01470651924856245</v>
+        <v>0.03080090773167221</v>
       </c>
       <c r="C38">
-        <v>-0.0199984118216824</v>
+        <v>-0.03010807920537315</v>
       </c>
       <c r="D38">
-        <v>-0.03697078362815186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007245763629264104</v>
+      </c>
+      <c r="E38">
+        <v>-0.008924178528487451</v>
+      </c>
+      <c r="F38">
+        <v>-0.01679136748089452</v>
+      </c>
+      <c r="G38">
+        <v>0.08821548928598955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.009309864905046457</v>
+        <v>0.03659904537914349</v>
       </c>
       <c r="C39">
-        <v>0.01850779427582575</v>
+        <v>-0.07974546842933965</v>
       </c>
       <c r="D39">
-        <v>-0.09981148782376789</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01184810770427098</v>
+      </c>
+      <c r="E39">
+        <v>-0.0303411429197617</v>
+      </c>
+      <c r="F39">
+        <v>0.02129037393502392</v>
+      </c>
+      <c r="G39">
+        <v>0.09017670423047688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01462479977598904</v>
+        <v>0.01313811389770279</v>
       </c>
       <c r="C40">
-        <v>0.002206308683525922</v>
+        <v>-0.03930140920458296</v>
       </c>
       <c r="D40">
-        <v>-0.03348103910268727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01488125297042401</v>
+      </c>
+      <c r="E40">
+        <v>-0.03287345454089084</v>
+      </c>
+      <c r="F40">
+        <v>-0.008687092942064762</v>
+      </c>
+      <c r="G40">
+        <v>0.1244055385773417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01525104888902922</v>
+        <v>0.02053549151788034</v>
       </c>
       <c r="C41">
-        <v>-0.007658095321541522</v>
+        <v>-0.002634067047485616</v>
       </c>
       <c r="D41">
-        <v>0.009839906907751671</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004535343952793137</v>
+      </c>
+      <c r="E41">
+        <v>-0.008197623852257894</v>
+      </c>
+      <c r="F41">
+        <v>-0.01521458489110656</v>
+      </c>
+      <c r="G41">
+        <v>0.08580735629484251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.04460357465802769</v>
+        <v>0.009486054717252166</v>
       </c>
       <c r="C42">
-        <v>0.0835907876902045</v>
+        <v>-0.03181903775499718</v>
       </c>
       <c r="D42">
-        <v>-0.1262436201920915</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08911163700413018</v>
+      </c>
+      <c r="E42">
+        <v>-0.01655332997632064</v>
+      </c>
+      <c r="F42">
+        <v>-0.03961330030707715</v>
+      </c>
+      <c r="G42">
+        <v>-0.02058595202974989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01594001470113778</v>
+        <v>0.03497111082871234</v>
       </c>
       <c r="C43">
-        <v>-0.007155204835523062</v>
+        <v>-0.01828202164446218</v>
       </c>
       <c r="D43">
-        <v>0.01112851711526928</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005997976849129084</v>
+      </c>
+      <c r="E43">
+        <v>-0.02163129749376145</v>
+      </c>
+      <c r="F43">
+        <v>-0.007181909704974652</v>
+      </c>
+      <c r="G43">
+        <v>0.1194549301087941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>8.556732193504036e-06</v>
+        <v>0.01351559807487057</v>
       </c>
       <c r="C44">
-        <v>0.003582514533533874</v>
+        <v>-0.05943939782237386</v>
       </c>
       <c r="D44">
-        <v>-0.04909596553853596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007073072311364535</v>
+      </c>
+      <c r="E44">
+        <v>-0.02641171560412714</v>
+      </c>
+      <c r="F44">
+        <v>-0.004730459305090905</v>
+      </c>
+      <c r="G44">
+        <v>0.110271171868447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00867817649598274</v>
+        <v>0.008159067337093137</v>
       </c>
       <c r="C46">
-        <v>0.005383573880950206</v>
+        <v>-0.01434023272545415</v>
       </c>
       <c r="D46">
-        <v>0.007090151272437279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01268643877972548</v>
+      </c>
+      <c r="E46">
+        <v>-0.002471523347807811</v>
+      </c>
+      <c r="F46">
+        <v>-0.01538178888332136</v>
+      </c>
+      <c r="G46">
+        <v>0.1070549303493422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02274249873061579</v>
+        <v>0.07744620796085082</v>
       </c>
       <c r="C47">
-        <v>-0.01877341005215271</v>
+        <v>-0.06904367255470453</v>
       </c>
       <c r="D47">
-        <v>-0.07262764872668968</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0047963024498921</v>
+      </c>
+      <c r="E47">
+        <v>0.005747864673094697</v>
+      </c>
+      <c r="F47">
+        <v>-0.05306718364003833</v>
+      </c>
+      <c r="G47">
+        <v>0.08449169140273582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008534411581687919</v>
+        <v>0.01841796887375714</v>
       </c>
       <c r="C48">
-        <v>-0.005118216458023126</v>
+        <v>-0.01300118417960325</v>
       </c>
       <c r="D48">
-        <v>-0.01541468472771952</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002397670557885339</v>
+      </c>
+      <c r="E48">
+        <v>-0.006892327193501449</v>
+      </c>
+      <c r="F48">
+        <v>-0.01876888948544968</v>
+      </c>
+      <c r="G48">
+        <v>0.098577163843029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03334475885953245</v>
+        <v>0.07513614529332274</v>
       </c>
       <c r="C50">
-        <v>-0.02471681797302688</v>
+        <v>-0.07187286122140751</v>
       </c>
       <c r="D50">
-        <v>-0.06758349506034472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002171955614967603</v>
+      </c>
+      <c r="E50">
+        <v>0.002996442071178462</v>
+      </c>
+      <c r="F50">
+        <v>-0.05416948645336857</v>
+      </c>
+      <c r="G50">
+        <v>0.09352125293652556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007534015902654839</v>
+        <v>0.01465626197011605</v>
       </c>
       <c r="C51">
-        <v>0.0009717504199560298</v>
+        <v>-0.03692059735246021</v>
       </c>
       <c r="D51">
-        <v>-0.02471246187149456</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01038136902711251</v>
+      </c>
+      <c r="E51">
+        <v>-0.02892836648529333</v>
+      </c>
+      <c r="F51">
+        <v>0.01910172830106057</v>
+      </c>
+      <c r="G51">
+        <v>0.1251270266839123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03741807691770176</v>
+        <v>0.08169568086370302</v>
       </c>
       <c r="C53">
-        <v>-0.02714486122969047</v>
+        <v>-0.08507000022867568</v>
       </c>
       <c r="D53">
-        <v>-0.1253701844019661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003459579299116611</v>
+      </c>
+      <c r="E53">
+        <v>0.0251021235244851</v>
+      </c>
+      <c r="F53">
+        <v>-0.06316937223061209</v>
+      </c>
+      <c r="G53">
+        <v>0.09289785311112714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01567984310176011</v>
+        <v>0.03108415263912831</v>
       </c>
       <c r="C54">
-        <v>-0.01554506276921219</v>
+        <v>-0.0189740477246955</v>
       </c>
       <c r="D54">
-        <v>0.002948013871232204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001090246359219772</v>
+      </c>
+      <c r="E54">
+        <v>-0.01963129729125079</v>
+      </c>
+      <c r="F54">
+        <v>-0.005198537536014237</v>
+      </c>
+      <c r="G54">
+        <v>0.1078841795593155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01934071422562569</v>
+        <v>0.07140376547068496</v>
       </c>
       <c r="C55">
-        <v>-0.01486366728804771</v>
+        <v>-0.06825750113469636</v>
       </c>
       <c r="D55">
-        <v>-0.09820207393612747</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00498293002830563</v>
+      </c>
+      <c r="E55">
+        <v>0.02350249334900781</v>
+      </c>
+      <c r="F55">
+        <v>-0.06270314325005624</v>
+      </c>
+      <c r="G55">
+        <v>0.07008644711621709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04383230467442119</v>
+        <v>0.1359401036484643</v>
       </c>
       <c r="C56">
-        <v>-0.03641357641270133</v>
+        <v>-0.107839556406669</v>
       </c>
       <c r="D56">
-        <v>-0.1586703188244799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01251844578019114</v>
+      </c>
+      <c r="E56">
+        <v>0.03353720157573213</v>
+      </c>
+      <c r="F56">
+        <v>-0.08063300400660295</v>
+      </c>
+      <c r="G56">
+        <v>0.044141092388005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02014537366517382</v>
+        <v>0.005958773790860106</v>
       </c>
       <c r="C57">
-        <v>0.01302431875442269</v>
+        <v>-0.006627589747303778</v>
       </c>
       <c r="D57">
-        <v>-0.03128056038258061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02282672830091853</v>
+      </c>
+      <c r="E57">
+        <v>-0.02515624788135325</v>
+      </c>
+      <c r="F57">
+        <v>0.006515108422701545</v>
+      </c>
+      <c r="G57">
+        <v>0.02364454009073379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01540982783984093</v>
+        <v>0.05238307669147229</v>
       </c>
       <c r="C58">
-        <v>-0.008294672549149389</v>
+        <v>-0.04166124220208731</v>
       </c>
       <c r="D58">
-        <v>-0.1265778339060832</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02078246923842244</v>
+      </c>
+      <c r="E58">
+        <v>-0.9036987892370059</v>
+      </c>
+      <c r="F58">
+        <v>-0.2925360035324932</v>
+      </c>
+      <c r="G58">
+        <v>-0.2377343999118234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2095045772200356</v>
+        <v>0.1599284515264116</v>
       </c>
       <c r="C59">
-        <v>-0.1542284842047541</v>
+        <v>0.2055068117546136</v>
       </c>
       <c r="D59">
-        <v>0.1134071624427958</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01155578031069012</v>
+      </c>
+      <c r="E59">
+        <v>-0.01939221537318907</v>
+      </c>
+      <c r="F59">
+        <v>-0.0009728485438475353</v>
+      </c>
+      <c r="G59">
+        <v>0.04395033515823792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1843484214355088</v>
+        <v>0.2883855873528438</v>
       </c>
       <c r="C60">
-        <v>-0.1115265420925756</v>
+        <v>-0.1095548736916501</v>
       </c>
       <c r="D60">
-        <v>-0.1602030810084371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0119103543328821</v>
+      </c>
+      <c r="E60">
+        <v>-0.008161670319863467</v>
+      </c>
+      <c r="F60">
+        <v>0.3384644564522867</v>
+      </c>
+      <c r="G60">
+        <v>-0.1616677642509332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003526019614956381</v>
+        <v>0.03890053160064528</v>
       </c>
       <c r="C61">
-        <v>0.001803547495199253</v>
+        <v>-0.06542543347537477</v>
       </c>
       <c r="D61">
-        <v>-0.07460598128726775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005611388355731827</v>
+      </c>
+      <c r="E61">
+        <v>-0.02498811348473291</v>
+      </c>
+      <c r="F61">
+        <v>0.01292934685695951</v>
+      </c>
+      <c r="G61">
+        <v>0.09676959640735154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.005536749521264158</v>
+        <v>0.01489504611016769</v>
       </c>
       <c r="C63">
-        <v>0.005066828892640976</v>
+        <v>-0.0302464552719244</v>
       </c>
       <c r="D63">
-        <v>-0.02541119022756859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008712252617796012</v>
+      </c>
+      <c r="E63">
+        <v>-0.006538494607091116</v>
+      </c>
+      <c r="F63">
+        <v>-0.01428097551458074</v>
+      </c>
+      <c r="G63">
+        <v>0.09485250641869319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02622015964467282</v>
+        <v>0.04915697823336578</v>
       </c>
       <c r="C64">
-        <v>-0.01248326984548131</v>
+        <v>-0.04792545889990397</v>
       </c>
       <c r="D64">
-        <v>-0.05769225189164937</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006538578814443872</v>
+      </c>
+      <c r="E64">
+        <v>-0.008946703055583019</v>
+      </c>
+      <c r="F64">
+        <v>0.0074772893001402</v>
+      </c>
+      <c r="G64">
+        <v>0.09965892797279949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02875495539337547</v>
+        <v>0.07482925991430789</v>
       </c>
       <c r="C65">
-        <v>0.0008345288255173704</v>
+        <v>-0.05796921909117493</v>
       </c>
       <c r="D65">
-        <v>-0.1120464634793365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01685633035903457</v>
+      </c>
+      <c r="E65">
+        <v>-0.04207576922559815</v>
+      </c>
+      <c r="F65">
+        <v>0.02694763785597734</v>
+      </c>
+      <c r="G65">
+        <v>0.04533314466715808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.006581158276198606</v>
+        <v>0.05082752376190055</v>
       </c>
       <c r="C66">
-        <v>0.01626464525949695</v>
+        <v>-0.1066249511865009</v>
       </c>
       <c r="D66">
-        <v>-0.1402589491532653</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01184518716826228</v>
+      </c>
+      <c r="E66">
+        <v>-0.04286172113149262</v>
+      </c>
+      <c r="F66">
+        <v>0.03292312585751005</v>
+      </c>
+      <c r="G66">
+        <v>0.1046627738068243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03518316691236811</v>
+        <v>0.05379357793813324</v>
       </c>
       <c r="C67">
-        <v>-0.03082503255762781</v>
+        <v>-0.03375300357885875</v>
       </c>
       <c r="D67">
-        <v>-0.05666525245094405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005807989271700387</v>
+      </c>
+      <c r="E67">
+        <v>0.0009945217668651909</v>
+      </c>
+      <c r="F67">
+        <v>-0.01626520960874081</v>
+      </c>
+      <c r="G67">
+        <v>0.07560232431851147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2159468113844596</v>
+        <v>0.1554672720601546</v>
       </c>
       <c r="C68">
-        <v>-0.1356040299756247</v>
+        <v>0.2694809482988046</v>
       </c>
       <c r="D68">
-        <v>0.1739403460077368</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005561472079381888</v>
+      </c>
+      <c r="E68">
+        <v>-0.01107565538278858</v>
+      </c>
+      <c r="F68">
+        <v>-0.03605712640178382</v>
+      </c>
+      <c r="G68">
+        <v>0.03155794106162867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02996395193049269</v>
+        <v>0.08231310818404992</v>
       </c>
       <c r="C69">
-        <v>-0.02883369215116049</v>
+        <v>-0.07041712184210457</v>
       </c>
       <c r="D69">
-        <v>-0.07644413770848695</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008778947371823456</v>
+      </c>
+      <c r="E69">
+        <v>0.01972151701340095</v>
+      </c>
+      <c r="F69">
+        <v>-0.03687479459291039</v>
+      </c>
+      <c r="G69">
+        <v>0.1023816334569031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1757748617705362</v>
+        <v>0.1412028508847721</v>
       </c>
       <c r="C71">
-        <v>-0.1183817827546352</v>
+        <v>0.2302385488498085</v>
       </c>
       <c r="D71">
-        <v>0.1235480686920585</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002996252817479546</v>
+      </c>
+      <c r="E71">
+        <v>-0.03126067982559498</v>
+      </c>
+      <c r="F71">
+        <v>-0.02588321665112724</v>
+      </c>
+      <c r="G71">
+        <v>0.07137971179679571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01314882796546301</v>
+        <v>0.08472289312371981</v>
       </c>
       <c r="C72">
-        <v>-0.01631022414441761</v>
+        <v>-0.06913988297754807</v>
       </c>
       <c r="D72">
-        <v>-0.1063597499637236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008175096880468493</v>
+      </c>
+      <c r="E72">
+        <v>0.008456441153265158</v>
+      </c>
+      <c r="F72">
+        <v>0.03533281205546158</v>
+      </c>
+      <c r="G72">
+        <v>0.08721587174898991</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2269680682560511</v>
+        <v>0.3771709145314571</v>
       </c>
       <c r="C73">
-        <v>-0.130622820914036</v>
+        <v>-0.1178095832836697</v>
       </c>
       <c r="D73">
-        <v>-0.2906350332748273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02112995581404801</v>
+      </c>
+      <c r="E73">
+        <v>-0.08952120897025026</v>
+      </c>
+      <c r="F73">
+        <v>0.5792366356952863</v>
+      </c>
+      <c r="G73">
+        <v>-0.2924271722100936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.043964559896175</v>
+        <v>0.1041293420986776</v>
       </c>
       <c r="C74">
-        <v>-0.03823572874058505</v>
+        <v>-0.1094864396214264</v>
       </c>
       <c r="D74">
-        <v>-0.1668901974687013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009292376117168153</v>
+      </c>
+      <c r="E74">
+        <v>0.007632018504149166</v>
+      </c>
+      <c r="F74">
+        <v>-0.06747208561019466</v>
+      </c>
+      <c r="G74">
+        <v>0.08314529585025043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1115014559305442</v>
+        <v>0.2473123775673903</v>
       </c>
       <c r="C75">
-        <v>-0.09236780810630407</v>
+        <v>-0.1535175879938294</v>
       </c>
       <c r="D75">
-        <v>-0.3020033733145098</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03090418608167133</v>
+      </c>
+      <c r="E75">
+        <v>0.07116259994880066</v>
+      </c>
+      <c r="F75">
+        <v>-0.1641380250606261</v>
+      </c>
+      <c r="G75">
+        <v>-0.01849439957604392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05279812000826395</v>
+        <v>0.1174666947424175</v>
       </c>
       <c r="C76">
-        <v>-0.05094083608082972</v>
+        <v>-0.1088311103433007</v>
       </c>
       <c r="D76">
-        <v>-0.1985713739836522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01744848141232598</v>
+      </c>
+      <c r="E76">
+        <v>0.02654258397787668</v>
+      </c>
+      <c r="F76">
+        <v>-0.09830914312377738</v>
+      </c>
+      <c r="G76">
+        <v>0.05886477879442895</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01600667623538455</v>
+        <v>0.07065409937731451</v>
       </c>
       <c r="C77">
-        <v>0.0006882187544356788</v>
+        <v>-0.06132109445580741</v>
       </c>
       <c r="D77">
-        <v>-0.07729787753037137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01033586372996221</v>
+      </c>
+      <c r="E77">
+        <v>-0.05163037528889877</v>
+      </c>
+      <c r="F77">
+        <v>0.01471311987483869</v>
+      </c>
+      <c r="G77">
+        <v>0.06421860504956667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.007646622750871967</v>
+        <v>0.04234366198545905</v>
       </c>
       <c r="C78">
-        <v>-0.000735237303277592</v>
+        <v>-0.04902385799732514</v>
       </c>
       <c r="D78">
-        <v>-0.06397232670390032</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.00592075895501498</v>
+      </c>
+      <c r="E78">
+        <v>-0.031011772234129</v>
+      </c>
+      <c r="F78">
+        <v>0.03591217650952546</v>
+      </c>
+      <c r="G78">
+        <v>0.1043369057991928</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.000171957445036537</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001207434576291097</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-6.699783417997081e-05</v>
+      </c>
+      <c r="E79">
+        <v>-0.001804716305246636</v>
+      </c>
+      <c r="F79">
+        <v>0.001301719561130269</v>
+      </c>
+      <c r="G79">
+        <v>0.0001005663649503767</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03338000191685317</v>
+        <v>0.04294422095121167</v>
       </c>
       <c r="C80">
-        <v>-0.009495707335346817</v>
+        <v>-0.05127277262341243</v>
       </c>
       <c r="D80">
-        <v>-0.07239476522274685</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01326573412486757</v>
+      </c>
+      <c r="E80">
+        <v>-0.02692918387995181</v>
+      </c>
+      <c r="F80">
+        <v>0.009329121442244889</v>
+      </c>
+      <c r="G80">
+        <v>0.05319218581856894</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06320364207483975</v>
+        <v>0.1367933765257043</v>
       </c>
       <c r="C81">
-        <v>-0.05145758950220901</v>
+        <v>-0.09661746644063098</v>
       </c>
       <c r="D81">
-        <v>-0.165069291781034</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01467128452960843</v>
+      </c>
+      <c r="E81">
+        <v>0.03601170138885451</v>
+      </c>
+      <c r="F81">
+        <v>-0.1263788247217768</v>
+      </c>
+      <c r="G81">
+        <v>0.02107335809915902</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.135702343957731</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08221390526813432</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01012146108854249</v>
+      </c>
+      <c r="E82">
+        <v>0.1053873533733002</v>
+      </c>
+      <c r="F82">
+        <v>-0.05327895574305391</v>
+      </c>
+      <c r="G82">
+        <v>0.05637199510304428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01379883292183634</v>
+        <v>0.03623710248433486</v>
       </c>
       <c r="C83">
-        <v>-0.004857608930898127</v>
+        <v>-0.02844179021043752</v>
       </c>
       <c r="D83">
-        <v>-0.02319021069783974</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006065910516471372</v>
+      </c>
+      <c r="E83">
+        <v>-0.03195315471254963</v>
+      </c>
+      <c r="F83">
+        <v>0.02848925089209344</v>
+      </c>
+      <c r="G83">
+        <v>0.0625746271199072</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09558529561178447</v>
+        <v>0.2110216514808342</v>
       </c>
       <c r="C85">
-        <v>-0.06612102086089401</v>
+        <v>-0.1483604041417912</v>
       </c>
       <c r="D85">
-        <v>-0.2665843060944525</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01685623647452394</v>
+      </c>
+      <c r="E85">
+        <v>0.1044290575772259</v>
+      </c>
+      <c r="F85">
+        <v>-0.1159922247587989</v>
+      </c>
+      <c r="G85">
+        <v>-0.06081337377644802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01560573215821648</v>
+        <v>0.01400345319812963</v>
       </c>
       <c r="C86">
-        <v>-0.00515559869812715</v>
+        <v>-0.02450846202303853</v>
       </c>
       <c r="D86">
-        <v>-0.03710801074399553</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01151712110390795</v>
+      </c>
+      <c r="E86">
+        <v>-0.05356312346467142</v>
+      </c>
+      <c r="F86">
+        <v>0.01621134296807161</v>
+      </c>
+      <c r="G86">
+        <v>0.1930944833250688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00514503818864847</v>
+        <v>0.02106772782008067</v>
       </c>
       <c r="C87">
-        <v>0.01428641064060663</v>
+        <v>-0.02031965011268286</v>
       </c>
       <c r="D87">
-        <v>-0.03147238359497762</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01212979962301848</v>
+      </c>
+      <c r="E87">
+        <v>-0.09691441650794146</v>
+      </c>
+      <c r="F87">
+        <v>0.007345295309878463</v>
+      </c>
+      <c r="G87">
+        <v>0.1227789826672255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04949967994101584</v>
+        <v>0.09371692255713121</v>
       </c>
       <c r="C88">
-        <v>-0.007228417300554321</v>
+        <v>-0.06869953140401987</v>
       </c>
       <c r="D88">
-        <v>-0.0426189719378343</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02231511049547331</v>
+      </c>
+      <c r="E88">
+        <v>0.004156845213133643</v>
+      </c>
+      <c r="F88">
+        <v>-0.02091042152644231</v>
+      </c>
+      <c r="G88">
+        <v>0.103393318102747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3283636850383999</v>
+        <v>0.2333400243387855</v>
       </c>
       <c r="C89">
-        <v>-0.2179561768837273</v>
+        <v>0.3672704721973271</v>
       </c>
       <c r="D89">
-        <v>0.2076678270600937</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0003503014766967301</v>
+      </c>
+      <c r="E89">
+        <v>0.01928927165280406</v>
+      </c>
+      <c r="F89">
+        <v>-0.02684685375892362</v>
+      </c>
+      <c r="G89">
+        <v>0.06978625309691748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2689029801388709</v>
+        <v>0.2081378420166651</v>
       </c>
       <c r="C90">
-        <v>-0.1825589509243084</v>
+        <v>0.316567790646832</v>
       </c>
       <c r="D90">
-        <v>0.1851310141530233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004734793691554996</v>
+      </c>
+      <c r="E90">
+        <v>0.0001300163165375879</v>
+      </c>
+      <c r="F90">
+        <v>-0.04653207441538564</v>
+      </c>
+      <c r="G90">
+        <v>0.04417161677724149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09393617468136357</v>
+        <v>0.1842995952611263</v>
       </c>
       <c r="C91">
-        <v>-0.08047570431533704</v>
+        <v>-0.1418109224434034</v>
       </c>
       <c r="D91">
-        <v>-0.2235418007910556</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02180279860387443</v>
+      </c>
+      <c r="E91">
+        <v>0.06539778821732735</v>
+      </c>
+      <c r="F91">
+        <v>-0.1385414065283594</v>
+      </c>
+      <c r="G91">
+        <v>0.03558809287773025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2290585524222668</v>
+        <v>0.2008608601559994</v>
       </c>
       <c r="C92">
-        <v>-0.1917224300686713</v>
+        <v>0.2568500591038056</v>
       </c>
       <c r="D92">
-        <v>0.09486326264099308</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03834379450421894</v>
+      </c>
+      <c r="E92">
+        <v>-0.03862836545358937</v>
+      </c>
+      <c r="F92">
+        <v>-0.06166736354511318</v>
+      </c>
+      <c r="G92">
+        <v>0.1099631431776631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.288177837824822</v>
+        <v>0.2322614890057272</v>
       </c>
       <c r="C93">
-        <v>-0.2019447461885203</v>
+        <v>0.3130134429339277</v>
       </c>
       <c r="D93">
-        <v>0.1568589807190092</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01153400019400241</v>
+      </c>
+      <c r="E93">
+        <v>-0.00178427193041225</v>
+      </c>
+      <c r="F93">
+        <v>-0.04373270439434027</v>
+      </c>
+      <c r="G93">
+        <v>0.05868561461582451</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1463433683668207</v>
+        <v>0.3201374212179902</v>
       </c>
       <c r="C94">
-        <v>-0.09338382302867747</v>
+        <v>-0.1818637824998273</v>
       </c>
       <c r="D94">
-        <v>-0.2848517800489037</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01929048605674585</v>
+      </c>
+      <c r="E94">
+        <v>0.2279004824697336</v>
+      </c>
+      <c r="F94">
+        <v>-0.4785934848993191</v>
+      </c>
+      <c r="G94">
+        <v>-0.4045159985546593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002791095973912208</v>
+        <v>0.1005642378047376</v>
       </c>
       <c r="C95">
-        <v>-0.01006294696352048</v>
+        <v>-0.0879292042309245</v>
       </c>
       <c r="D95">
-        <v>-0.1210847776869404</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009837640960210659</v>
+      </c>
+      <c r="E95">
+        <v>-0.08806577351148556</v>
+      </c>
+      <c r="F95">
+        <v>0.1815831707144854</v>
+      </c>
+      <c r="G95">
+        <v>0.0002229635732537784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1321000132031279</v>
+        <v>0.1950724651630419</v>
       </c>
       <c r="C98">
-        <v>-0.1085006605042931</v>
+        <v>-0.04525352745326532</v>
       </c>
       <c r="D98">
-        <v>-0.1302541391509583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01327002347096624</v>
+      </c>
+      <c r="E98">
+        <v>-0.07602387542355091</v>
+      </c>
+      <c r="F98">
+        <v>0.2364678198011505</v>
+      </c>
+      <c r="G98">
+        <v>-0.02831301458412813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009661023502483939</v>
+        <v>0.008201559547013414</v>
       </c>
       <c r="C101">
-        <v>0.0008620781080175412</v>
+        <v>-0.02234227405970608</v>
       </c>
       <c r="D101">
-        <v>-0.01535463373494896</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009258789606146942</v>
+      </c>
+      <c r="E101">
+        <v>-0.006333165195605439</v>
+      </c>
+      <c r="F101">
+        <v>-0.01429990523811765</v>
+      </c>
+      <c r="G101">
+        <v>0.09821791753520019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05564120945425836</v>
+        <v>0.1144588252370718</v>
       </c>
       <c r="C102">
-        <v>-0.02994787554245588</v>
+        <v>-0.08436774661782939</v>
       </c>
       <c r="D102">
-        <v>-0.1349490229953044</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.001056561321565474</v>
+      </c>
+      <c r="E102">
+        <v>0.03409757423916442</v>
+      </c>
+      <c r="F102">
+        <v>-0.03965961133800021</v>
+      </c>
+      <c r="G102">
+        <v>0.01273211035291703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5658494706835295</v>
+        <v>0.02122341943300765</v>
       </c>
       <c r="C104">
-        <v>0.813375324025689</v>
+        <v>0.03016036370345717</v>
       </c>
       <c r="D104">
-        <v>0.02915485791045354</v>
+        <v>-0.9878181110015223</v>
+      </c>
+      <c r="E104">
+        <v>0.05090175820284964</v>
+      </c>
+      <c r="F104">
+        <v>-0.03455492092376413</v>
+      </c>
+      <c r="G104">
+        <v>-0.04062129356458983</v>
       </c>
     </row>
   </sheetData>
